--- a/ConceptMap-R5-TestReport-elements-for-R4-TestReport.xlsx
+++ b/ConceptMap-R5-TestReport-elements-for-R4-TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.7002525-06:00</t>
+    <t>2026-02-09T22:05:44.3069688-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,9 +114,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport</t>
-  </si>
-  <si>
     <t>TestReport.meta</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.meta</t>
   </si>
   <si>
-    <t>Basic.meta</t>
-  </si>
-  <si>
     <t>TestReport.implicitRules</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.implicitRules</t>
   </si>
   <si>
-    <t>Basic.implicitRules</t>
-  </si>
-  <si>
     <t>TestReport.language</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.language</t>
   </si>
   <si>
-    <t>Basic.language</t>
-  </si>
-  <si>
     <t>TestReport.text</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.text</t>
   </si>
   <si>
-    <t>Basic.text</t>
-  </si>
-  <si>
     <t>TestReport.contained</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.contained</t>
   </si>
   <si>
-    <t>Basic.contained</t>
-  </si>
-  <si>
     <t>TestReport.identifier</t>
   </si>
   <si>
@@ -186,9 +168,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.identifier</t>
   </si>
   <si>
-    <t>Basic.identifier</t>
-  </si>
-  <si>
     <t>TestReport.name</t>
   </si>
   <si>
@@ -198,9 +177,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:name</t>
-  </si>
-  <si>
     <t>TestReport.status</t>
   </si>
   <si>
@@ -210,9 +186,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:status</t>
-  </si>
-  <si>
     <t>TestReport.testScript</t>
   </si>
   <si>
@@ -222,9 +195,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.testScript</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:testScript</t>
-  </si>
-  <si>
     <t>TestReport.result</t>
   </si>
   <si>
@@ -234,9 +204,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:result</t>
-  </si>
-  <si>
     <t>TestReport.score</t>
   </si>
   <si>
@@ -246,9 +213,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.score</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:score</t>
-  </si>
-  <si>
     <t>TestReport.tester</t>
   </si>
   <si>
@@ -258,9 +222,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.tester</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:tester</t>
-  </si>
-  <si>
     <t>TestReport.issued</t>
   </si>
   <si>
@@ -270,9 +231,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.issued</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:issued</t>
-  </si>
-  <si>
     <t>TestReport.participant</t>
   </si>
   <si>
@@ -282,9 +240,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.participant</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:participant</t>
-  </si>
-  <si>
     <t>TestReport.participant.type</t>
   </si>
   <si>
@@ -294,9 +249,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.participant.type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:participant:type</t>
-  </si>
-  <si>
     <t>TestReport.participant.uri</t>
   </si>
   <si>
@@ -306,9 +258,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.participant.uri</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:participant:uri</t>
-  </si>
-  <si>
     <t>TestReport.participant.display</t>
   </si>
   <si>
@@ -318,9 +267,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.participant.display</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:participant:display</t>
-  </si>
-  <si>
     <t>TestReport.setup</t>
   </si>
   <si>
@@ -330,9 +276,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup</t>
-  </si>
-  <si>
     <t>TestReport.setup.action</t>
   </si>
   <si>
@@ -342,9 +285,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.operation</t>
   </si>
   <si>
@@ -354,18 +294,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.operation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:operation</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.operation.result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.operation.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:operation:result</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.operation.message</t>
   </si>
   <si>
@@ -375,9 +309,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.operation.message</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:operation:message</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.operation.detail</t>
   </si>
   <si>
@@ -387,9 +318,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.operation.detail</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:operation:detail</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert</t>
   </si>
   <si>
@@ -399,60 +327,36 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.assert</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.assert.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert:result</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.message</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.assert.message</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert:message</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.detail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.setup.action.assert.detail</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert:detail</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.requirement</t>
   </si>
   <si>
     <t>requirement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup.action.assert.requirement</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert:requirement</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.requirement.link[x]</t>
   </si>
   <si>
     <t>link[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup.action.assert.requirement:link</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:setup:action:assert:requirement:link</t>
-  </si>
-  <si>
     <t>TestReport.test</t>
   </si>
   <si>
@@ -462,18 +366,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test</t>
-  </si>
-  <si>
     <t>TestReport.test.name</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:name</t>
-  </si>
-  <si>
     <t>TestReport.test.description</t>
   </si>
   <si>
@@ -483,81 +381,54 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:description</t>
-  </si>
-  <si>
     <t>TestReport.test.action</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action</t>
-  </si>
-  <si>
     <t>TestReport.test.action.operation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:operation</t>
-  </si>
-  <si>
     <t>TestReport.test.action.operation.result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:operation:result</t>
-  </si>
-  <si>
     <t>TestReport.test.action.operation.message</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.message</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:operation:message</t>
-  </si>
-  <si>
     <t>TestReport.test.action.operation.detail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.detail</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:operation:detail</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert.result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert:result</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert.message</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.message</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert:message</t>
-  </si>
-  <si>
     <t>TestReport.teardown</t>
   </si>
   <si>
@@ -567,76 +438,46 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert.detail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.detail</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert:detail</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert.requirement</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert:requirement</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown:action</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert.requirement.link[x]</t>
   </si>
   <si>
-    <t>requirement:link</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:test:action:assert:requirement:link</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action.operation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown:action:operation</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action.operation.result</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.result</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown:action:operation:result</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action.operation.message</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.message</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown:action:operation:message</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action.operation.detail</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.detail</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport:teardown:action:operation:detail</t>
   </si>
 </sst>
 </file>
@@ -893,7 +734,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,1290 +787,640 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>121</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="E90" s="2"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="E91" s="2"/>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="E92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="E93" s="2"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="E94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="E95" s="2"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="E96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="E97" s="2"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E99" s="2"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="E100" s="2"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="E101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="E102" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-TestReport-elements-for-R4-TestReport.xlsx
+++ b/ConceptMap-R5-TestReport-elements-for-R4-TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.3069688-06:00</t>
+    <t>2026-02-17T14:42:27.6306735-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,42 +393,12 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation</t>
   </si>
   <si>
-    <t>TestReport.test.action.operation.result</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.result</t>
-  </si>
-  <si>
-    <t>TestReport.test.action.operation.message</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.message</t>
-  </si>
-  <si>
-    <t>TestReport.test.action.operation.detail</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.operation.detail</t>
-  </si>
-  <si>
     <t>TestReport.test.action.assert</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert</t>
   </si>
   <si>
-    <t>TestReport.test.action.assert.result</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.result</t>
-  </si>
-  <si>
-    <t>TestReport.test.action.assert.message</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.message</t>
-  </si>
-  <si>
     <t>TestReport.teardown</t>
   </si>
   <si>
@@ -438,46 +408,16 @@
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown</t>
   </si>
   <si>
-    <t>TestReport.test.action.assert.detail</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.test.action.assert.detail</t>
-  </si>
-  <si>
-    <t>TestReport.test.action.assert.requirement</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action</t>
   </si>
   <si>
-    <t>TestReport.test.action.assert.requirement.link[x]</t>
-  </si>
-  <si>
     <t>TestReport.teardown.action.operation</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation</t>
-  </si>
-  <si>
-    <t>TestReport.teardown.action.operation.result</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.result</t>
-  </si>
-  <si>
-    <t>TestReport.teardown.action.operation.message</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.message</t>
-  </si>
-  <si>
-    <t>TestReport.teardown.action.operation.detail</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport#TestReport.teardown.action.operation.detail</t>
   </si>
 </sst>
 </file>
@@ -734,7 +674,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1232,7 +1172,7 @@
         <v>126</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -1245,182 +1185,39 @@
         <v>128</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="E52" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
